--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenty\Studia\Analityka\IV_semestr\Zarządzanie projektem analiza danych gospodarczych\Rr\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DFB06F-9EFF-4866-B662-B6A0BA455F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Dane" sheetId="1" r:id="rId1"/>
     <sheet name="Opis" sheetId="2" r:id="rId2"/>
     <sheet name="Źródła" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>country</t>
   </si>
@@ -183,12 +177,15 @@
   </si>
   <si>
     <t>https://ec.europa.eu/eurostat/databrowser/view/tps00001/default/table?lang=en</t>
+  </si>
+  <si>
+    <t>damian - commit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.##########"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -282,21 +279,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1068D2F0-63BF-4C1F-9152-64A4D331545F}" name="Tabela1" displayName="Tabela1" ref="A1:I26" totalsRowShown="0">
-  <autoFilter ref="A1:I26" xr:uid="{1068D2F0-63BF-4C1F-9152-64A4D331545F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:I26" totalsRowShown="0">
+  <autoFilter ref="A1:I26"/>
+  <sortState ref="A2:I26">
     <sortCondition ref="A1:A26"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{684B83A5-D70D-47E4-9B2C-1190602A3C10}" name="country"/>
-    <tableColumn id="2" xr3:uid="{6B7E82D7-FCE1-4054-AD6F-661CE0A84AC6}" name="GDP_pc" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{96E8C2FF-20D8-43F1-B180-90484AC6B5A7}" name="high_tech_trade_pc" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{28A85D8B-0AE6-4398-A91A-02DDC07F13B8}" name="r&amp;d_gdp_pct" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{2CE36D71-1FBD-4D27-BE18-B8397C5603C1}" name="r&amp;d_bud_pct" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{E75075B1-E53C-4B1B-9C6A-E928E81A495B}" name="use_cloud_pct" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{09E722F4-BB18-47DC-87DB-1193317C662E}" name="weeknd_work_pct" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{1DD8C391-43C2-42A2-968E-B6F0F391D0C3}" name="emp_deadline_pct" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{8A074D2A-D51B-4443-80A2-186FCD808EAB}" name="working_pop_pct" dataDxfId="0"/>
+    <tableColumn id="1" name="country"/>
+    <tableColumn id="2" name="GDP_pc" dataDxfId="7"/>
+    <tableColumn id="3" name="high_tech_trade_pc" dataDxfId="6"/>
+    <tableColumn id="4" name="r&amp;d_gdp_pct" dataDxfId="5"/>
+    <tableColumn id="5" name="r&amp;d_bud_pct" dataDxfId="4"/>
+    <tableColumn id="6" name="use_cloud_pct" dataDxfId="3"/>
+    <tableColumn id="7" name="weeknd_work_pct" dataDxfId="2"/>
+    <tableColumn id="8" name="emp_deadline_pct" dataDxfId="1"/>
+    <tableColumn id="9" name="working_pop_pct" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -345,7 +342,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -380,7 +377,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -557,18 +554,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,6 +1335,11 @@
         <v>63.662359192216819</v>
       </c>
     </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1347,7 +1349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55513EB8-E00A-471E-9933-689A1A7FCBBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1437,7 +1439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A7BC5F7-0CA2-47DA-A2EE-765AF7DFA880}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="66">
   <si>
     <t>country</t>
   </si>
@@ -179,7 +179,46 @@
     <t>https://ec.europa.eu/eurostat/databrowser/view/tps00001/default/table?lang=en</t>
   </si>
   <si>
-    <t>damian - commit</t>
+    <t>sea_access</t>
+  </si>
+  <si>
+    <t>joined_EU</t>
+  </si>
+  <si>
+    <t>1990s</t>
+  </si>
+  <si>
+    <t>Founding member (1957)</t>
+  </si>
+  <si>
+    <t>2000s</t>
+  </si>
+  <si>
+    <t>2010s</t>
+  </si>
+  <si>
+    <t>1970s</t>
+  </si>
+  <si>
+    <t>1980s</t>
+  </si>
+  <si>
+    <t>is_euro_currency</t>
+  </si>
+  <si>
+    <t>nuclear_electricity</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>Germany (until 1990 former territory of the FRG)</t>
+  </si>
+  <si>
+    <t>44 002</t>
+  </si>
+  <si>
+    <t>Kolumna1</t>
   </si>
 </sst>
 </file>
@@ -191,7 +230,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,16 +247,39 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F6F6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -225,22 +287,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB0B0B0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB0B0B0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB0B0B0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB0B0B0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF6F6F6"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCE6F1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FFB0B0B0"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFB0B0B0"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFB0B0B0"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFB0B0B0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.##########"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
@@ -279,21 +446,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:I26" totalsRowShown="0">
-  <autoFilter ref="A1:I26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:P26" totalsRowShown="0">
+  <autoFilter ref="A1:P26"/>
   <sortState ref="A2:I26">
     <sortCondition ref="A1:A26"/>
   </sortState>
-  <tableColumns count="9">
+  <tableColumns count="16">
     <tableColumn id="1" name="country"/>
-    <tableColumn id="2" name="GDP_pc" dataDxfId="7"/>
-    <tableColumn id="3" name="high_tech_trade_pc" dataDxfId="6"/>
-    <tableColumn id="4" name="r&amp;d_gdp_pct" dataDxfId="5"/>
-    <tableColumn id="5" name="r&amp;d_bud_pct" dataDxfId="4"/>
-    <tableColumn id="6" name="use_cloud_pct" dataDxfId="3"/>
-    <tableColumn id="7" name="weeknd_work_pct" dataDxfId="2"/>
-    <tableColumn id="8" name="emp_deadline_pct" dataDxfId="1"/>
-    <tableColumn id="9" name="working_pop_pct" dataDxfId="0"/>
+    <tableColumn id="2" name="GDP_pc" dataDxfId="14"/>
+    <tableColumn id="3" name="high_tech_trade_pc" dataDxfId="13"/>
+    <tableColumn id="4" name="r&amp;d_gdp_pct" dataDxfId="12"/>
+    <tableColumn id="5" name="r&amp;d_bud_pct" dataDxfId="11"/>
+    <tableColumn id="6" name="use_cloud_pct" dataDxfId="10"/>
+    <tableColumn id="7" name="weeknd_work_pct" dataDxfId="9"/>
+    <tableColumn id="8" name="emp_deadline_pct" dataDxfId="8"/>
+    <tableColumn id="9" name="working_pop_pct" dataDxfId="7"/>
+    <tableColumn id="16" name="Kolumna1" dataDxfId="0"/>
+    <tableColumn id="10" name="sea_access" dataDxfId="5"/>
+    <tableColumn id="11" name="joined_EU" dataDxfId="6"/>
+    <tableColumn id="12" name="is_euro_currency" dataDxfId="4"/>
+    <tableColumn id="13" name="nuclear_electricity" dataDxfId="3"/>
+    <tableColumn id="14" name="Austria" dataDxfId="2"/>
+    <tableColumn id="15" name="44 002" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -562,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,10 +752,13 @@
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
     <col min="8" max="8" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="9" max="10" width="18.42578125" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -609,8 +786,29 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -638,8 +836,27 @@
       <c r="I2" s="3">
         <v>66.634237732509277</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="3"/>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="6">
+        <v>1</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="8">
+        <v>34020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -667,8 +884,27 @@
       <c r="I3" s="3">
         <v>64.791514383292608</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="3"/>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M3" s="6">
+        <v>1</v>
+      </c>
+      <c r="N3" s="6">
+        <v>1</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="9">
+        <v>29002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -696,8 +932,27 @@
       <c r="I4" s="3">
         <v>65.6271877001993</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="3"/>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P4" s="8">
+        <v>13430</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -725,8 +980,27 @@
       <c r="I5" s="3">
         <v>65.92643011788941</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="3"/>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -754,8 +1028,27 @@
       <c r="I6" s="3">
         <v>66.673150966358335</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="3"/>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>1</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="9">
+        <v>22332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -783,8 +1076,27 @@
       <c r="I7" s="3">
         <v>64.376033068802926</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="3"/>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="9">
+        <v>4492</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -812,8 +1124,27 @@
       <c r="I8" s="3">
         <v>64.523489014123072</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="3"/>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="6">
+        <v>1</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="8">
+        <v>18258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -841,8 +1172,27 @@
       <c r="I9" s="3">
         <v>63.144297631855828</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="3"/>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M9" s="6">
+        <v>1</v>
+      </c>
+      <c r="N9" s="6">
+        <v>1</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="9">
+        <v>206710</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -870,8 +1220,27 @@
       <c r="I10" s="3">
         <v>61.628104530681135</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="3"/>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="6">
+        <v>1</v>
+      </c>
+      <c r="N10" s="6">
+        <v>1</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" s="8">
+        <v>338129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -899,8 +1268,27 @@
       <c r="I11" s="3">
         <v>65.228333219023625</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="3"/>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+      <c r="N11" s="6">
+        <v>1</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="9">
+        <v>63866</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -928,8 +1316,27 @@
       <c r="I12" s="3">
         <v>64.350602476437217</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="3"/>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="6">
+        <v>1</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="8">
+        <v>30486</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -957,8 +1364,27 @@
       <c r="I13" s="3">
         <v>66.261001011509123</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="3"/>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="8">
+        <v>14666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -986,8 +1412,27 @@
       <c r="I14" s="3">
         <v>65.858179799287115</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="3"/>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" s="6">
+        <v>1</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" s="9">
+        <v>233102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1015,8 +1460,27 @@
       <c r="I15" s="3">
         <v>64.20660754266278</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="3"/>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M15" s="6">
+        <v>1</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="8">
+        <v>6324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1044,8 +1508,27 @@
       <c r="I16" s="3">
         <v>64.171117609622101</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="3"/>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M16" s="6">
+        <v>1</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="9">
+        <v>13490</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1073,8 +1556,27 @@
       <c r="I17" s="3">
         <v>66.224802842059361</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="3"/>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" s="6">
+        <v>1</v>
+      </c>
+      <c r="N17" s="6">
+        <v>0</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" s="9">
+        <v>59144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1102,8 +1604,27 @@
       <c r="I18" s="3">
         <v>64.792482879137864</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="3"/>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M18" s="6">
+        <v>1</v>
+      </c>
+      <c r="N18" s="6">
+        <v>1</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="9">
+        <v>88437</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1131,8 +1652,27 @@
       <c r="I19" s="3">
         <v>66.116021701425481</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="3"/>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" s="8">
+        <v>47792</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1160,8 +1700,27 @@
       <c r="I20" s="3">
         <v>64.993886160167364</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="3"/>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M20" s="6">
+        <v>1</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P20" s="9">
+        <v>54807</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1189,8 +1748,27 @@
       <c r="I21" s="3">
         <v>67.45376735845592</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="3"/>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0</v>
+      </c>
+      <c r="N21" s="6">
+        <v>1</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" s="9">
+        <v>18719</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1218,8 +1796,27 @@
       <c r="I22" s="3">
         <v>70.7204055669539</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="3"/>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M22" s="6">
+        <v>1</v>
+      </c>
+      <c r="N22" s="6">
+        <v>1</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P22" s="8">
+        <v>5830</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1247,8 +1844,27 @@
       <c r="I23" s="3">
         <v>67.013302799880165</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="3"/>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M23" s="6">
+        <v>1</v>
+      </c>
+      <c r="N23" s="6">
+        <v>1</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P23" s="8">
+        <v>178600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1276,8 +1892,27 @@
       <c r="I24" s="3">
         <v>65.967463850307311</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="3"/>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M24" s="6">
+        <v>1</v>
+      </c>
+      <c r="N24" s="6">
+        <v>1</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24" s="9">
+        <v>40914</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1305,8 +1940,27 @@
       <c r="I25" s="3">
         <v>63.30127506385066</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="3"/>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0</v>
+      </c>
+      <c r="N25" s="6">
+        <v>1</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P25" s="8">
+        <v>179162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1334,10 +1988,18 @@
       <c r="I26" s="3">
         <v>63.662359192216819</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>52</v>
+      <c r="J26" s="3"/>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dane" sheetId="1" r:id="rId1"/>
-    <sheet name="Opis" sheetId="2" r:id="rId2"/>
-    <sheet name="Źródła" sheetId="3" r:id="rId3"/>
+    <sheet name="Źródła" sheetId="3" r:id="rId2"/>
+    <sheet name="1_Zespół Projektowy" sheetId="5" r:id="rId3"/>
+    <sheet name="2_Opis zmiennych" sheetId="2" r:id="rId4"/>
+    <sheet name="Arkusz3" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>country</t>
   </si>
@@ -209,16 +211,94 @@
     <t>nuclear_electricity</t>
   </si>
   <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>Germany (until 1990 former territory of the FRG)</t>
-  </si>
-  <si>
-    <t>44 002</t>
-  </si>
-  <si>
-    <t>Kolumna1</t>
+    <t>phycisians_per_1000</t>
+  </si>
+  <si>
+    <t>lekarze na 1000 mieszkańców</t>
+  </si>
+  <si>
+    <t>dostęp do morza</t>
+  </si>
+  <si>
+    <t>dekada dołączenia do Unii Europejskiej</t>
+  </si>
+  <si>
+    <t>Czy walutą jest euro?</t>
+  </si>
+  <si>
+    <t>Czy kraj posiada elektorwnie atomowe?</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/databrowser/explore/all/popul?lang=en&amp;display=list&amp;sort=category</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>Mateusz</t>
+  </si>
+  <si>
+    <t>Damian</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Nowak</t>
+  </si>
+  <si>
+    <t>Okoń</t>
+  </si>
+  <si>
+    <t>Zamiar</t>
+  </si>
+  <si>
+    <t>Lp.</t>
+  </si>
+  <si>
+    <t>Imię</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>etykieta</t>
+  </si>
+  <si>
+    <t>typ zmiennej</t>
+  </si>
+  <si>
+    <t>zmienna numeryczna</t>
+  </si>
+  <si>
+    <t>zmienna kategoryczna (binarna)</t>
+  </si>
+  <si>
+    <t>zmienna kategoryczna</t>
+  </si>
+  <si>
+    <t>Powyższe zmienne zostały dobrane w toku logicznego rozumowania i znajomości podstaowwych praw kształtujących gospodarkę państw członkowskich Wspólnoty Europejskiej</t>
+  </si>
+  <si>
+    <t>zmienna</t>
+  </si>
+  <si>
+    <t>wyjaśnienie</t>
+  </si>
+  <si>
+    <t>Ze względu na tempo zmian technologicznych do zbioru dodano zmienne:</t>
+  </si>
+  <si>
+    <t>Czy kraj posiada elektrownie atomowe?</t>
+  </si>
+  <si>
+    <t>Powyższe zmienne różnią się w zależności od krajów - np.. Według praw czy wytycznych dotyczących korzystania z energii jądrowej i polityki wewnętrznej państwa. Natomiast wydatki na badania i rozwój oraz korzystanie z chmury i handel wysokimi technologiami jest wskaźnikiem rozwoju państwa Są także danymi gospodarczymi.</t>
   </si>
 </sst>
 </file>
@@ -239,6 +319,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,57 +337,27 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6F6F6"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB0B0B0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB0B0B0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB0B0B0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB0B0B0"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -312,90 +370,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF6F6F6"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCE6F1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color rgb="FFB0B0B0"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFB0B0B0"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFB0B0B0"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFB0B0B0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -403,10 +387,13 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.##########"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.##########"/>
+      <numFmt numFmtId="165" formatCode="0.0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0"/>
@@ -446,28 +433,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:P26" totalsRowShown="0">
-  <autoFilter ref="A1:P26"/>
-  <sortState ref="A2:I26">
-    <sortCondition ref="A1:A26"/>
-  </sortState>
-  <tableColumns count="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:N26" totalsRowShown="0">
+  <autoFilter ref="A1:N26"/>
+  <tableColumns count="14">
     <tableColumn id="1" name="country"/>
-    <tableColumn id="2" name="GDP_pc" dataDxfId="14"/>
-    <tableColumn id="3" name="high_tech_trade_pc" dataDxfId="13"/>
-    <tableColumn id="4" name="r&amp;d_gdp_pct" dataDxfId="12"/>
-    <tableColumn id="5" name="r&amp;d_bud_pct" dataDxfId="11"/>
-    <tableColumn id="6" name="use_cloud_pct" dataDxfId="10"/>
-    <tableColumn id="7" name="weeknd_work_pct" dataDxfId="9"/>
-    <tableColumn id="8" name="emp_deadline_pct" dataDxfId="8"/>
-    <tableColumn id="9" name="working_pop_pct" dataDxfId="7"/>
-    <tableColumn id="16" name="Kolumna1" dataDxfId="0"/>
-    <tableColumn id="10" name="sea_access" dataDxfId="5"/>
-    <tableColumn id="11" name="joined_EU" dataDxfId="6"/>
-    <tableColumn id="12" name="is_euro_currency" dataDxfId="4"/>
-    <tableColumn id="13" name="nuclear_electricity" dataDxfId="3"/>
-    <tableColumn id="14" name="Austria" dataDxfId="2"/>
-    <tableColumn id="15" name="44 002" dataDxfId="1"/>
+    <tableColumn id="2" name="GDP_pc" dataDxfId="12"/>
+    <tableColumn id="3" name="high_tech_trade_pc" dataDxfId="11"/>
+    <tableColumn id="4" name="r&amp;d_gdp_pct" dataDxfId="10"/>
+    <tableColumn id="5" name="r&amp;d_bud_pct" dataDxfId="9"/>
+    <tableColumn id="6" name="use_cloud_pct" dataDxfId="8"/>
+    <tableColumn id="7" name="weeknd_work_pct" dataDxfId="7"/>
+    <tableColumn id="8" name="emp_deadline_pct" dataDxfId="6"/>
+    <tableColumn id="9" name="working_pop_pct" dataDxfId="5"/>
+    <tableColumn id="16" name="phycisians_per_1000" dataDxfId="4"/>
+    <tableColumn id="10" name="sea_access" dataDxfId="3"/>
+    <tableColumn id="11" name="joined_EU" dataDxfId="2"/>
+    <tableColumn id="12" name="is_euro_currency" dataDxfId="1"/>
+    <tableColumn id="13" name="nuclear_electricity" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -736,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,12 +735,15 @@
     <col min="7" max="7" width="19.42578125" customWidth="1"/>
     <col min="8" max="8" width="19.7109375" customWidth="1"/>
     <col min="9" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
     <col min="12" max="12" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5703125" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -787,7 +772,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K1" t="s">
         <v>52</v>
@@ -801,14 +786,8 @@
       <c r="N1" t="s">
         <v>61</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -836,7 +815,9 @@
       <c r="I2" s="3">
         <v>66.634237732509277</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="J2" s="3">
+        <v>5.1254955488259304</v>
+      </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
@@ -849,14 +830,8 @@
       <c r="N2" s="6">
         <v>0</v>
       </c>
-      <c r="O2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="8">
-        <v>34020</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -884,7 +859,9 @@
       <c r="I3" s="3">
         <v>64.791514383292608</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="3">
+        <v>3.027424622733236</v>
+      </c>
       <c r="K3" s="1">
         <v>1</v>
       </c>
@@ -897,14 +874,8 @@
       <c r="N3" s="6">
         <v>1</v>
       </c>
-      <c r="O3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" s="9">
-        <v>29002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -932,7 +903,9 @@
       <c r="I4" s="3">
         <v>65.6271877001993</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="3">
+        <v>4.026826254984937</v>
+      </c>
       <c r="K4" s="1">
         <v>1</v>
       </c>
@@ -945,14 +918,8 @@
       <c r="N4" s="6">
         <v>1</v>
       </c>
-      <c r="O4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P4" s="8">
-        <v>13430</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -980,7 +947,9 @@
       <c r="I5" s="3">
         <v>65.92643011788941</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="3">
+        <v>3.1784604985757277</v>
+      </c>
       <c r="K5" s="1">
         <v>1</v>
       </c>
@@ -993,14 +962,8 @@
       <c r="N5" s="6">
         <v>0</v>
       </c>
-      <c r="O5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1028,7 +991,10 @@
       <c r="I6" s="3">
         <v>66.673150966358335</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3">
+        <f>AVERAGE(J2:J5,J7:J26)</f>
+        <v>3.6397359683867223</v>
+      </c>
       <c r="K6" s="1">
         <v>0</v>
       </c>
@@ -1041,14 +1007,8 @@
       <c r="N6" s="6">
         <v>1</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="9">
-        <v>22332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1076,7 +1036,9 @@
       <c r="I7" s="3">
         <v>64.376033068802926</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3">
+        <v>3.9457817222245293</v>
+      </c>
       <c r="K7" s="1">
         <v>1</v>
       </c>
@@ -1089,14 +1051,8 @@
       <c r="N7" s="6">
         <v>0</v>
       </c>
-      <c r="O7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" s="9">
-        <v>4492</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1124,7 +1080,9 @@
       <c r="I8" s="3">
         <v>64.523489014123072</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="3">
+        <v>3.4163073155521078</v>
+      </c>
       <c r="K8" s="1">
         <v>1</v>
       </c>
@@ -1137,14 +1095,8 @@
       <c r="N8" s="6">
         <v>0</v>
       </c>
-      <c r="O8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="8">
-        <v>18258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1172,7 +1124,9 @@
       <c r="I9" s="3">
         <v>63.144297631855828</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="3">
+        <v>3.3367734252624341</v>
+      </c>
       <c r="K9" s="1">
         <v>1</v>
       </c>
@@ -1185,14 +1139,8 @@
       <c r="N9" s="6">
         <v>1</v>
       </c>
-      <c r="O9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P9" s="9">
-        <v>206710</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1220,7 +1168,9 @@
       <c r="I10" s="3">
         <v>61.628104530681135</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3">
+        <v>3.1103783459043766</v>
+      </c>
       <c r="K10" s="1">
         <v>1</v>
       </c>
@@ -1233,14 +1183,8 @@
       <c r="N10" s="6">
         <v>1</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P10" s="8">
-        <v>338129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1268,7 +1212,9 @@
       <c r="I11" s="3">
         <v>65.228333219023625</v>
       </c>
-      <c r="J11" s="3"/>
+      <c r="J11" s="3">
+        <v>4.1642765592754376</v>
+      </c>
       <c r="K11" s="1">
         <v>1</v>
       </c>
@@ -1281,14 +1227,8 @@
       <c r="N11" s="6">
         <v>1</v>
       </c>
-      <c r="O11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="9">
-        <v>63866</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1316,7 +1256,9 @@
       <c r="I12" s="3">
         <v>64.350602476437217</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3">
+        <v>5.8819206230824079</v>
+      </c>
       <c r="K12" s="1">
         <v>1</v>
       </c>
@@ -1329,14 +1271,8 @@
       <c r="N12" s="6">
         <v>0</v>
       </c>
-      <c r="O12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="8">
-        <v>30486</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1364,7 +1300,9 @@
       <c r="I13" s="3">
         <v>66.261001011509123</v>
       </c>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3">
+        <v>3.0932758741223618</v>
+      </c>
       <c r="K13" s="1">
         <v>0</v>
       </c>
@@ -1377,14 +1315,8 @@
       <c r="N13" s="6">
         <v>1</v>
       </c>
-      <c r="O13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" s="8">
-        <v>14666</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1412,7 +1344,9 @@
       <c r="I14" s="3">
         <v>65.858179799287115</v>
       </c>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3">
+        <v>3.1353504672347752</v>
+      </c>
       <c r="K14" s="1">
         <v>1</v>
       </c>
@@ -1425,14 +1359,8 @@
       <c r="N14" s="6">
         <v>0</v>
       </c>
-      <c r="O14" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P14" s="9">
-        <v>233102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1460,7 +1388,9 @@
       <c r="I15" s="3">
         <v>64.20660754266278</v>
       </c>
-      <c r="J15" s="3"/>
+      <c r="J15" s="3">
+        <v>3.8341911912984772</v>
+      </c>
       <c r="K15" s="1">
         <v>1</v>
       </c>
@@ -1473,14 +1403,8 @@
       <c r="N15" s="6">
         <v>0</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" s="8">
-        <v>6324</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1508,7 +1432,9 @@
       <c r="I16" s="3">
         <v>64.171117609622101</v>
       </c>
-      <c r="J16" s="3"/>
+      <c r="J16" s="3">
+        <v>3.18413611426638</v>
+      </c>
       <c r="K16" s="1">
         <v>1</v>
       </c>
@@ -1521,14 +1447,8 @@
       <c r="N16" s="6">
         <v>0</v>
       </c>
-      <c r="O16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P16" s="9">
-        <v>13490</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1556,7 +1476,9 @@
       <c r="I17" s="3">
         <v>66.224802842059361</v>
       </c>
-      <c r="J17" s="3"/>
+      <c r="J17" s="3">
+        <v>4.6178672094457802</v>
+      </c>
       <c r="K17" s="1">
         <v>1</v>
       </c>
@@ -1569,14 +1491,8 @@
       <c r="N17" s="6">
         <v>0</v>
       </c>
-      <c r="O17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="P17" s="9">
-        <v>59144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -1604,7 +1520,9 @@
       <c r="I18" s="3">
         <v>64.792482879137864</v>
       </c>
-      <c r="J18" s="3"/>
+      <c r="J18" s="3">
+        <v>3.4994946370942879</v>
+      </c>
       <c r="K18" s="1">
         <v>1</v>
       </c>
@@ -1617,14 +1535,8 @@
       <c r="N18" s="6">
         <v>1</v>
       </c>
-      <c r="O18" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P18" s="9">
-        <v>88437</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1652,7 +1564,9 @@
       <c r="I19" s="3">
         <v>66.116021701425481</v>
       </c>
-      <c r="J19" s="3"/>
+      <c r="J19" s="3">
+        <v>2.3269456980750265</v>
+      </c>
       <c r="K19" s="1">
         <v>1</v>
       </c>
@@ -1665,14 +1579,8 @@
       <c r="N19" s="6">
         <v>0</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" s="8">
-        <v>47792</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1700,7 +1608,9 @@
       <c r="I20" s="3">
         <v>64.993886160167364</v>
       </c>
-      <c r="J20" s="3"/>
+      <c r="J20" s="3">
+        <v>4.6065368639577624</v>
+      </c>
       <c r="K20" s="1">
         <v>1</v>
       </c>
@@ -1713,14 +1623,8 @@
       <c r="N20" s="6">
         <v>0</v>
       </c>
-      <c r="O20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" s="9">
-        <v>54807</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1748,7 +1652,9 @@
       <c r="I21" s="3">
         <v>67.45376735845592</v>
       </c>
-      <c r="J21" s="3"/>
+      <c r="J21" s="3">
+        <v>2.7581890010929184</v>
+      </c>
       <c r="K21" s="1">
         <v>1</v>
       </c>
@@ -1761,14 +1667,8 @@
       <c r="N21" s="6">
         <v>1</v>
       </c>
-      <c r="O21" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P21" s="9">
-        <v>18719</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1796,7 +1696,9 @@
       <c r="I22" s="3">
         <v>70.7204055669539</v>
       </c>
-      <c r="J22" s="3"/>
+      <c r="J22" s="3">
+        <v>3.4528306515592337</v>
+      </c>
       <c r="K22" s="1">
         <v>0</v>
       </c>
@@ -1809,14 +1711,8 @@
       <c r="N22" s="6">
         <v>1</v>
       </c>
-      <c r="O22" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P22" s="8">
-        <v>5830</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1844,7 +1740,9 @@
       <c r="I23" s="3">
         <v>67.013302799880165</v>
       </c>
-      <c r="J23" s="3"/>
+      <c r="J23" s="3">
+        <v>2.826154190706752</v>
+      </c>
       <c r="K23" s="1">
         <v>1</v>
       </c>
@@ -1857,14 +1755,8 @@
       <c r="N23" s="6">
         <v>1</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P23" s="8">
-        <v>178600</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1892,7 +1784,9 @@
       <c r="I24" s="3">
         <v>65.967463850307311</v>
       </c>
-      <c r="J24" s="3"/>
+      <c r="J24" s="3">
+        <v>3.8450306262286849</v>
+      </c>
       <c r="K24" s="1">
         <v>1</v>
       </c>
@@ -1905,14 +1799,8 @@
       <c r="N24" s="6">
         <v>1</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P24" s="9">
-        <v>40914</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -1940,7 +1828,9 @@
       <c r="I25" s="3">
         <v>63.30127506385066</v>
       </c>
-      <c r="J25" s="3"/>
+      <c r="J25" s="3">
+        <v>4.1974463841729373</v>
+      </c>
       <c r="K25" s="1">
         <v>1</v>
       </c>
@@ -1953,14 +1843,8 @@
       <c r="N25" s="6">
         <v>1</v>
       </c>
-      <c r="O25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P25" s="8">
-        <v>179162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1988,7 +1872,9 @@
       <c r="I26" s="3">
         <v>63.662359192216819</v>
       </c>
-      <c r="J26" s="3"/>
+      <c r="J26" s="3">
+        <v>2.7625694156048244</v>
+      </c>
       <c r="K26" s="1">
         <v>1</v>
       </c>
@@ -2012,87 +1898,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>42</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2102,60 +1963,288 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="I16" sqref="I15:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>51</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenty\Studia\Analityka\IV_semestr\Zarządzanie projektem analiza danych gospodarczych\Rr\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A46429-91D9-4028-8861-ECFCDCEF1C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dane" sheetId="1" r:id="rId1"/>
@@ -13,10 +19,20 @@
     <sheet name="2_Opis zmiennych" sheetId="2" r:id="rId4"/>
     <sheet name="Arkusz3" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -304,7 +320,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.##########"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -433,23 +449,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:N26" totalsRowShown="0">
-  <autoFilter ref="A1:N26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:N26" totalsRowShown="0">
+  <autoFilter ref="A1:N26" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="14">
-    <tableColumn id="1" name="country"/>
-    <tableColumn id="2" name="GDP_pc" dataDxfId="12"/>
-    <tableColumn id="3" name="high_tech_trade_pc" dataDxfId="11"/>
-    <tableColumn id="4" name="r&amp;d_gdp_pct" dataDxfId="10"/>
-    <tableColumn id="5" name="r&amp;d_bud_pct" dataDxfId="9"/>
-    <tableColumn id="6" name="use_cloud_pct" dataDxfId="8"/>
-    <tableColumn id="7" name="weeknd_work_pct" dataDxfId="7"/>
-    <tableColumn id="8" name="emp_deadline_pct" dataDxfId="6"/>
-    <tableColumn id="9" name="working_pop_pct" dataDxfId="5"/>
-    <tableColumn id="16" name="phycisians_per_1000" dataDxfId="4"/>
-    <tableColumn id="10" name="sea_access" dataDxfId="3"/>
-    <tableColumn id="11" name="joined_EU" dataDxfId="2"/>
-    <tableColumn id="12" name="is_euro_currency" dataDxfId="1"/>
-    <tableColumn id="13" name="nuclear_electricity" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="country"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="GDP_pc" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="high_tech_trade_pc" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="r&amp;d_gdp_pct" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="r&amp;d_bud_pct" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="use_cloud_pct" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="weeknd_work_pct" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="emp_deadline_pct" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="working_pop_pct" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="phycisians_per_1000" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="sea_access" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="joined_EU" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="is_euro_currency" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="nuclear_electricity" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -710,18 +726,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="A2" sqref="A2:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1897,10 +1913,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -1962,7 +1978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2021,11 +2037,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2236,7 +2252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
